--- a/2020年1月金源消耗表 (财务运营共享版）.xlsx
+++ b/2020年1月金源消耗表 (财务运营共享版）.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\多彩运营\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AE$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$T$14</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,13 +29,14 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -39,6 +45,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -46,13 +53,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -61,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -68,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>以百分比的形式填写</t>
@@ -760,16 +770,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-804]aaaa;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="[$-804]aaaa;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,200 +789,88 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,67 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,128 +895,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1198,254 +919,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,104 +944,104 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1562,109 +1050,68 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="百分比 3" xfId="4"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="百分比 3" xfId="49"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1951,16 +1398,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1975,9 +1422,10 @@
     <col min="19" max="20" width="12.5" customWidth="1"/>
     <col min="22" max="22" width="12.5" customWidth="1"/>
     <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:31">
+    <row r="1" spans="1:31" ht="28.5">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +1520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:31">
+    <row r="2" spans="1:31" ht="14.25">
       <c r="A2" s="19" t="s">
         <v>31</v>
       </c>
@@ -2155,10 +1603,10 @@
         <v>42</v>
       </c>
       <c r="AE2" s="26">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="14.25">
       <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
@@ -2198,10 +1646,10 @@
         <v>48</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="O3" s="26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="20"/>
@@ -2219,12 +1667,11 @@
         <v>254831.51</v>
       </c>
       <c r="V3" s="38">
-        <v>1368000</v>
+        <v>1440000</v>
       </c>
       <c r="W3" s="38"/>
       <c r="X3" s="39">
-        <f t="shared" si="2"/>
-        <v>-1014831.51</v>
+        <v>72000</v>
       </c>
       <c r="Y3" s="36">
         <v>608000</v>
@@ -2242,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:31">
+    <row r="4" spans="1:31" ht="14.25">
       <c r="A4" s="19" t="s">
         <v>31</v>
       </c>
@@ -2298,15 +1745,15 @@
         <v>822181.82</v>
       </c>
       <c r="T4" s="37">
-        <v>50788.6800000009</v>
+        <v>50788.680000000903</v>
       </c>
       <c r="U4" s="36">
         <f t="shared" si="0"/>
-        <v>771393.139999999</v>
+        <v>771393.13999999908</v>
       </c>
       <c r="V4" s="38">
         <f t="shared" si="1"/>
-        <v>50788.6800000009</v>
+        <v>50788.680000000903</v>
       </c>
       <c r="W4" s="38"/>
       <c r="X4" s="39">
@@ -2315,7 +1762,7 @@
       </c>
       <c r="Y4" s="36">
         <f t="shared" si="3"/>
-        <v>50788.6800000009</v>
+        <v>50788.680000000903</v>
       </c>
       <c r="Z4" s="26">
         <v>0.05</v>
@@ -2330,7 +1777,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:31">
+    <row r="5" spans="1:31" ht="14.25">
       <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
@@ -2386,7 +1833,7 @@
       </c>
       <c r="U5" s="36">
         <f t="shared" si="0"/>
-        <v>7.03999999999905</v>
+        <v>7.0399999999990541</v>
       </c>
       <c r="V5" s="38">
         <f t="shared" si="1"/>
@@ -2414,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:31">
+    <row r="6" spans="1:31" ht="14.25">
       <c r="A6" s="19" t="s">
         <v>31</v>
       </c>
@@ -2470,16 +1917,16 @@
       </c>
       <c r="U6" s="36">
         <f t="shared" si="0"/>
-        <v>15901.84</v>
+        <v>15901.839999999997</v>
       </c>
       <c r="V6" s="38">
         <f t="shared" si="1"/>
-        <v>87727.8117272727</v>
+        <v>87727.811727272725</v>
       </c>
       <c r="W6" s="38"/>
       <c r="X6" s="39">
         <f t="shared" si="2"/>
-        <v>2459.65827272728</v>
+        <v>2459.6582727272762</v>
       </c>
       <c r="Y6" s="36">
         <f t="shared" si="3"/>
@@ -2495,10 +1942,10 @@
         <v>42</v>
       </c>
       <c r="AE6" s="26">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="14.25">
       <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
@@ -2546,7 +1993,7 @@
       <c r="P7" s="29"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="40">
-        <v>9737.54999999992</v>
+        <v>9737.5499999999192</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="37">
@@ -2554,16 +2001,16 @@
       </c>
       <c r="U7" s="36">
         <f t="shared" si="0"/>
-        <v>2375.20999999992</v>
+        <v>2375.2099999999191</v>
       </c>
       <c r="V7" s="38">
         <f t="shared" si="1"/>
-        <v>7161.54890909091</v>
+        <v>7161.5489090909086</v>
       </c>
       <c r="W7" s="38"/>
       <c r="X7" s="39">
         <f t="shared" si="2"/>
-        <v>200.791090909092</v>
+        <v>200.79109090909151</v>
       </c>
       <c r="Y7" s="36">
         <f t="shared" si="3"/>
@@ -2579,10 +2026,10 @@
         <v>42</v>
       </c>
       <c r="AE7" s="26">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="14.25">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -2642,12 +2089,12 @@
       </c>
       <c r="V8" s="38">
         <f t="shared" si="1"/>
-        <v>96355.4077669903</v>
+        <v>96355.407766990291</v>
       </c>
       <c r="W8" s="38"/>
       <c r="X8" s="39">
         <f t="shared" si="2"/>
-        <v>2890.66223300972</v>
+        <v>2890.6622330097161</v>
       </c>
       <c r="Y8" s="36">
         <f t="shared" si="3"/>
@@ -2666,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:31">
+    <row r="9" spans="1:31" ht="14.25">
       <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
@@ -2728,14 +2175,14 @@
       </c>
       <c r="V9" s="38">
         <f t="shared" si="1"/>
-        <v>791015.647218045</v>
+        <v>791015.64721804496</v>
       </c>
       <c r="W9" s="38">
         <v>48960</v>
       </c>
       <c r="X9" s="39">
         <f t="shared" si="2"/>
-        <v>5992.54278195498</v>
+        <v>5992.5427819549805</v>
       </c>
       <c r="Y9" s="36">
         <f t="shared" si="3"/>
@@ -2754,7 +2201,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:31">
+    <row r="10" spans="1:31" ht="14.25">
       <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
@@ -2810,7 +2257,7 @@
       </c>
       <c r="U10" s="36">
         <f t="shared" si="0"/>
-        <v>-233.11</v>
+        <v>-233.10999999999967</v>
       </c>
       <c r="V10" s="38">
         <v>0</v>
@@ -2836,7 +2283,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:31">
+    <row r="11" spans="1:31" ht="14.25">
       <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
@@ -2920,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:31">
+    <row r="12" spans="1:31" ht="14.25">
       <c r="A12" s="19" t="s">
         <v>31</v>
       </c>
@@ -2979,12 +2426,12 @@
       </c>
       <c r="V12" s="38">
         <f t="shared" si="4"/>
-        <v>94786.3106796116</v>
+        <v>94786.310679611648</v>
       </c>
       <c r="W12" s="38"/>
       <c r="X12" s="39">
         <f t="shared" si="5"/>
-        <v>2843.58932038835</v>
+        <v>2843.5893203883461</v>
       </c>
       <c r="Y12" s="36">
         <f t="shared" si="6"/>
@@ -3003,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:31">
+    <row r="13" spans="1:31" ht="14.25">
       <c r="A13" s="19" t="s">
         <v>31</v>
       </c>
@@ -3087,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:31">
+    <row r="14" spans="1:31" ht="14.25">
       <c r="A14" s="19" t="s">
         <v>31</v>
       </c>
@@ -3171,7 +2618,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:31">
+    <row r="15" spans="1:31" ht="14.25">
       <c r="A15" s="19" t="s">
         <v>31</v>
       </c>
@@ -3255,7 +2702,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:31">
+    <row r="16" spans="1:31" ht="14.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -3303,7 +2750,7 @@
       <c r="P16" s="29"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="40">
-        <v>16779.92</v>
+        <v>16779.919999999998</v>
       </c>
       <c r="S16" s="36"/>
       <c r="T16" s="36">
@@ -3315,7 +2762,7 @@
       </c>
       <c r="V16" s="38">
         <f t="shared" si="4"/>
-        <v>25.3</v>
+        <v>25.300000000000004</v>
       </c>
       <c r="W16" s="38"/>
       <c r="X16" s="39">
@@ -3339,7 +2786,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:31">
+    <row r="17" spans="1:31" ht="14.25">
       <c r="A17" s="19" t="s">
         <v>31</v>
       </c>
@@ -3423,7 +2870,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:31">
+    <row r="18" spans="1:31" ht="14.25">
       <c r="A18" s="19" t="s">
         <v>31</v>
       </c>
@@ -3471,7 +2918,7 @@
       <c r="P18" s="29"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="40">
-        <v>70024.24</v>
+        <v>70024.240000000005</v>
       </c>
       <c r="S18" s="36"/>
       <c r="T18" s="36">
@@ -3479,7 +2926,7 @@
       </c>
       <c r="U18" s="36">
         <f t="shared" si="7"/>
-        <v>70024.24</v>
+        <v>70024.240000000005</v>
       </c>
       <c r="V18" s="38">
         <f t="shared" si="4"/>
@@ -3507,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:31">
+    <row r="19" spans="1:31" ht="14.25">
       <c r="A19" s="19" t="s">
         <v>31</v>
       </c>
@@ -3591,7 +3038,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:31">
+    <row r="20" spans="1:31" ht="14.25">
       <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
@@ -3675,7 +3122,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:31">
+    <row r="21" spans="1:31" ht="14.25">
       <c r="A21" s="19" t="s">
         <v>31</v>
       </c>
@@ -3718,7 +3165,7 @@
         <v>56</v>
       </c>
       <c r="O21" s="26">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="P21" s="29"/>
       <c r="Q21" s="20"/>
@@ -3756,10 +3203,10 @@
         <v>55</v>
       </c>
       <c r="AE21" s="26">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:31">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="14.25">
       <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
@@ -3807,7 +3254,7 @@
       <c r="P22" s="29"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="40">
-        <v>135533.64</v>
+        <v>135533.64000000001</v>
       </c>
       <c r="S22" s="36"/>
       <c r="T22" s="36">
@@ -3815,16 +3262,16 @@
       </c>
       <c r="U22" s="36">
         <f t="shared" si="7"/>
-        <v>131941.95</v>
+        <v>131941.95000000001</v>
       </c>
       <c r="V22" s="38">
         <f t="shared" si="4"/>
-        <v>3043.80508474576</v>
+        <v>3043.805084745763</v>
       </c>
       <c r="W22" s="38"/>
       <c r="X22" s="39">
         <f t="shared" si="5"/>
-        <v>547.884915254237</v>
+        <v>547.88491525423706</v>
       </c>
       <c r="Y22" s="36">
         <f t="shared" si="6"/>
@@ -3843,7 +3290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:31">
+    <row r="23" spans="1:31" ht="14.25">
       <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
@@ -3891,7 +3338,7 @@
       <c r="P23" s="29"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="40">
-        <v>8102.91492957751</v>
+        <v>8102.9149295775096</v>
       </c>
       <c r="S23" s="36"/>
       <c r="T23" s="36">
@@ -3899,7 +3346,7 @@
       </c>
       <c r="U23" s="36">
         <f t="shared" si="7"/>
-        <v>8102.91492957751</v>
+        <v>8102.9149295775096</v>
       </c>
       <c r="V23" s="38">
         <f t="shared" si="4"/>
@@ -3927,7 +3374,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:31">
+    <row r="24" spans="1:31" ht="14.25">
       <c r="A24" s="19" t="s">
         <v>31</v>
       </c>
@@ -3975,7 +3422,7 @@
       <c r="P24" s="29"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="40">
-        <v>655.379999999786</v>
+        <v>655.37999999978604</v>
       </c>
       <c r="S24" s="36"/>
       <c r="T24" s="36">
@@ -3983,7 +3430,7 @@
       </c>
       <c r="U24" s="36">
         <f t="shared" si="7"/>
-        <v>655.379999999786</v>
+        <v>655.37999999978604</v>
       </c>
       <c r="V24" s="38">
         <f t="shared" si="4"/>
@@ -4011,7 +3458,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:31">
+    <row r="25" spans="1:31" ht="14.25">
       <c r="A25" s="19" t="s">
         <v>31</v>
       </c>
@@ -4059,7 +3506,7 @@
       <c r="P25" s="29"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="40">
-        <v>32528.018732394</v>
+        <v>32528.018732394001</v>
       </c>
       <c r="S25" s="36"/>
       <c r="T25" s="36">
@@ -4067,7 +3514,7 @@
       </c>
       <c r="U25" s="36">
         <f t="shared" si="7"/>
-        <v>32528.018732394</v>
+        <v>32528.018732394001</v>
       </c>
       <c r="V25" s="38">
         <f t="shared" si="4"/>
@@ -4095,7 +3542,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:31">
+    <row r="26" spans="1:31" ht="14.25">
       <c r="A26" s="19" t="s">
         <v>31</v>
       </c>
@@ -4143,7 +3590,7 @@
       <c r="P26" s="29"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="40">
-        <v>44404.901830986</v>
+        <v>44404.901830985997</v>
       </c>
       <c r="S26" s="36"/>
       <c r="T26" s="36">
@@ -4151,7 +3598,7 @@
       </c>
       <c r="U26" s="36">
         <f t="shared" si="7"/>
-        <v>44404.901830986</v>
+        <v>44404.901830985997</v>
       </c>
       <c r="V26" s="38">
         <f t="shared" si="4"/>
@@ -4179,7 +3626,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:31">
+    <row r="27" spans="1:31" ht="14.25">
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
@@ -4227,7 +3674,7 @@
       <c r="P27" s="29"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="40">
-        <v>227.307746478764</v>
+        <v>227.30774647876399</v>
       </c>
       <c r="S27" s="36"/>
       <c r="T27" s="36">
@@ -4235,7 +3682,7 @@
       </c>
       <c r="U27" s="36">
         <f t="shared" si="7"/>
-        <v>227.307746478764</v>
+        <v>227.30774647876399</v>
       </c>
       <c r="V27" s="38">
         <f t="shared" si="4"/>
@@ -4263,7 +3710,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:31">
+    <row r="28" spans="1:31" ht="14.25">
       <c r="A28" s="19" t="s">
         <v>31</v>
       </c>
@@ -4347,7 +3794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:31">
+    <row r="29" spans="1:31" ht="14.25">
       <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
@@ -4431,7 +3878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:31">
+    <row r="30" spans="1:31" ht="14.25">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
@@ -4515,7 +3962,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:31">
+    <row r="31" spans="1:31" ht="14.25">
       <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
@@ -4599,7 +4046,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="1:31">
+    <row r="32" spans="1:31" ht="14.25">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -4683,7 +4130,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:31">
+    <row r="33" spans="1:31" ht="14.25">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
@@ -4767,7 +4214,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="1:31">
+    <row r="34" spans="1:31" ht="14.25">
       <c r="A34" s="19" t="s">
         <v>31</v>
       </c>
@@ -4815,7 +4262,7 @@
       <c r="P34" s="29"/>
       <c r="Q34" s="20"/>
       <c r="R34" s="40">
-        <v>2063.53535211203</v>
+        <v>2063.5353521120301</v>
       </c>
       <c r="S34" s="36"/>
       <c r="T34" s="36">
@@ -4823,7 +4270,7 @@
       </c>
       <c r="U34" s="36">
         <f t="shared" si="7"/>
-        <v>2063.53535211203</v>
+        <v>2063.5353521120301</v>
       </c>
       <c r="V34" s="38">
         <f t="shared" si="4"/>
@@ -4851,7 +4298,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="1:31">
+    <row r="35" spans="1:31" ht="14.25">
       <c r="A35" s="19" t="s">
         <v>31</v>
       </c>
@@ -4935,7 +4382,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="1:31">
+    <row r="36" spans="1:31" ht="14.25">
       <c r="A36" s="19" t="s">
         <v>31</v>
       </c>
@@ -5019,7 +4466,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="1:31">
+    <row r="37" spans="1:31" ht="14.25">
       <c r="A37" s="19" t="s">
         <v>31</v>
       </c>
@@ -5067,7 +4514,7 @@
       <c r="P37" s="29"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="40">
-        <v>20014.1111267606</v>
+        <v>20014.111126760599</v>
       </c>
       <c r="S37" s="36"/>
       <c r="T37" s="36">
@@ -5075,7 +4522,7 @@
       </c>
       <c r="U37" s="36">
         <f t="shared" si="7"/>
-        <v>20014.1111267606</v>
+        <v>20014.111126760599</v>
       </c>
       <c r="V37" s="38">
         <f t="shared" si="4"/>
@@ -5103,7 +4550,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="1:31">
+    <row r="38" spans="1:31" ht="14.25">
       <c r="A38" s="19" t="s">
         <v>31</v>
       </c>
@@ -5151,7 +4598,7 @@
       <c r="P38" s="29"/>
       <c r="Q38" s="20"/>
       <c r="R38" s="40">
-        <v>322.473943659919</v>
+        <v>322.47394365991897</v>
       </c>
       <c r="S38" s="36"/>
       <c r="T38" s="36">
@@ -5159,7 +4606,7 @@
       </c>
       <c r="U38" s="36">
         <f t="shared" si="7"/>
-        <v>322.473943659919</v>
+        <v>322.47394365991897</v>
       </c>
       <c r="V38" s="38">
         <f t="shared" si="4"/>
@@ -5187,7 +4634,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="1:31">
+    <row r="39" spans="1:31" ht="14.25">
       <c r="A39" s="19" t="s">
         <v>31</v>
       </c>
@@ -5235,7 +4682,7 @@
       <c r="P39" s="29"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="40">
-        <v>196.545070422697</v>
+        <v>196.54507042269699</v>
       </c>
       <c r="S39" s="36"/>
       <c r="T39" s="36">
@@ -5243,7 +4690,7 @@
       </c>
       <c r="U39" s="36">
         <f t="shared" si="7"/>
-        <v>196.545070422697</v>
+        <v>196.54507042269699</v>
       </c>
       <c r="V39" s="38">
         <f t="shared" si="4"/>
@@ -5271,7 +4718,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="1:31">
+    <row r="40" spans="1:31" ht="14.25">
       <c r="A40" s="19" t="s">
         <v>31</v>
       </c>
@@ -5319,7 +4766,7 @@
       <c r="P40" s="29"/>
       <c r="Q40" s="20"/>
       <c r="R40" s="40">
-        <v>1513.00323943661</v>
+        <v>1513.0032394366101</v>
       </c>
       <c r="S40" s="36"/>
       <c r="T40" s="36">
@@ -5327,7 +4774,7 @@
       </c>
       <c r="U40" s="36">
         <f t="shared" si="7"/>
-        <v>1513.00323943661</v>
+        <v>1513.0032394366101</v>
       </c>
       <c r="V40" s="38">
         <f t="shared" si="4"/>
@@ -5355,7 +4802,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="1:31">
+    <row r="41" spans="1:31" ht="14.25">
       <c r="A41" s="19" t="s">
         <v>31</v>
       </c>
@@ -5403,7 +4850,7 @@
       <c r="P41" s="29"/>
       <c r="Q41" s="20"/>
       <c r="R41" s="40">
-        <v>6504.6216901407</v>
+        <v>6504.6216901406997</v>
       </c>
       <c r="S41" s="36"/>
       <c r="T41" s="36">
@@ -5411,7 +4858,7 @@
       </c>
       <c r="U41" s="36">
         <f t="shared" si="7"/>
-        <v>6504.6216901407</v>
+        <v>6504.6216901406997</v>
       </c>
       <c r="V41" s="38">
         <f t="shared" si="4"/>
@@ -5439,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="1:31">
+    <row r="42" spans="1:31" ht="14.25">
       <c r="A42" s="19" t="s">
         <v>31</v>
       </c>
@@ -5487,7 +4934,7 @@
       <c r="P42" s="29"/>
       <c r="Q42" s="20"/>
       <c r="R42" s="40">
-        <v>44820.2619707214</v>
+        <v>44820.261970721403</v>
       </c>
       <c r="S42" s="36"/>
       <c r="T42" s="36">
@@ -5495,7 +4942,7 @@
       </c>
       <c r="U42" s="36">
         <f t="shared" si="7"/>
-        <v>44820.2619707214</v>
+        <v>44820.261970721403</v>
       </c>
       <c r="V42" s="38">
         <f t="shared" si="4"/>
@@ -5523,7 +4970,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="1:31">
+    <row r="43" spans="1:31" ht="14.25">
       <c r="A43" s="19" t="s">
         <v>31</v>
       </c>
@@ -5607,7 +5054,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="1:31">
+    <row r="44" spans="1:31" ht="14.25">
       <c r="A44" s="19" t="s">
         <v>31</v>
       </c>
@@ -5691,7 +5138,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="1:31">
+    <row r="45" spans="1:31" ht="14.25">
       <c r="A45" s="19" t="s">
         <v>31</v>
       </c>
@@ -5739,7 +5186,7 @@
       <c r="P45" s="29"/>
       <c r="Q45" s="20"/>
       <c r="R45" s="40">
-        <v>480.558732393845</v>
+        <v>480.55873239384499</v>
       </c>
       <c r="S45" s="36"/>
       <c r="T45" s="36">
@@ -5747,7 +5194,7 @@
       </c>
       <c r="U45" s="36">
         <f t="shared" si="7"/>
-        <v>480.558732393845</v>
+        <v>480.55873239384499</v>
       </c>
       <c r="V45" s="38">
         <f t="shared" si="4"/>
@@ -5775,7 +5222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="1:31">
+    <row r="46" spans="1:31" ht="14.25">
       <c r="A46" s="19" t="s">
         <v>31</v>
       </c>
@@ -5859,7 +5306,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="1:31">
+    <row r="47" spans="1:31" ht="14.25">
       <c r="A47" s="19" t="s">
         <v>31</v>
       </c>
@@ -5907,7 +5354,7 @@
       <c r="P47" s="29"/>
       <c r="Q47" s="20"/>
       <c r="R47" s="40">
-        <v>147.299859155086</v>
+        <v>147.29985915508601</v>
       </c>
       <c r="S47" s="36"/>
       <c r="T47" s="36">
@@ -5915,7 +5362,7 @@
       </c>
       <c r="U47" s="36">
         <f t="shared" si="7"/>
-        <v>147.299859155086</v>
+        <v>147.29985915508601</v>
       </c>
       <c r="V47" s="38">
         <f t="shared" si="4"/>
@@ -5943,7 +5390,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" ht="14.25" spans="1:31">
+    <row r="48" spans="1:31" ht="14.25">
       <c r="A48" s="19" t="s">
         <v>31</v>
       </c>
@@ -5991,7 +5438,7 @@
       <c r="P48" s="29"/>
       <c r="Q48" s="20"/>
       <c r="R48" s="40">
-        <v>4215.22450704232</v>
+        <v>4215.2245070423196</v>
       </c>
       <c r="S48" s="36"/>
       <c r="T48" s="36">
@@ -5999,7 +5446,7 @@
       </c>
       <c r="U48" s="36">
         <f t="shared" si="7"/>
-        <v>4215.22450704232</v>
+        <v>4215.2245070423196</v>
       </c>
       <c r="V48" s="38">
         <f t="shared" si="4"/>
@@ -6027,7 +5474,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" ht="14.25" spans="1:31">
+    <row r="49" spans="1:31" ht="14.25">
       <c r="A49" s="19" t="s">
         <v>31</v>
       </c>
@@ -6111,7 +5558,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" ht="14.25" spans="1:31">
+    <row r="50" spans="1:31" ht="14.25">
       <c r="A50" s="19" t="s">
         <v>31</v>
       </c>
@@ -6195,7 +5642,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="1:31">
+    <row r="51" spans="1:31" ht="14.25">
       <c r="A51" s="19" t="s">
         <v>31</v>
       </c>
@@ -6279,7 +5726,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" ht="14.25" spans="1:31">
+    <row r="52" spans="1:31" ht="14.25">
       <c r="A52" s="19" t="s">
         <v>31</v>
       </c>
@@ -6363,7 +5810,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" ht="14.25" spans="1:31">
+    <row r="53" spans="1:31" ht="14.25">
       <c r="A53" s="19" t="s">
         <v>31</v>
       </c>
@@ -6419,7 +5866,7 @@
       </c>
       <c r="U53" s="36">
         <f t="shared" si="7"/>
-        <v>7458.79</v>
+        <v>7458.7900000000009</v>
       </c>
       <c r="V53" s="38">
         <f t="shared" si="4"/>
@@ -6447,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="14.25" spans="1:31">
+    <row r="54" spans="1:31" ht="14.25">
       <c r="A54" s="19" t="s">
         <v>31</v>
       </c>
@@ -6531,7 +5978,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" ht="14.25" spans="1:31">
+    <row r="55" spans="1:31" ht="14.25">
       <c r="A55" s="19" t="s">
         <v>31</v>
       </c>
@@ -6615,7 +6062,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" ht="14.25" spans="1:31">
+    <row r="56" spans="1:31" ht="14.25">
       <c r="A56" s="19" t="s">
         <v>31</v>
       </c>
@@ -6699,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="14.25" spans="1:31">
+    <row r="57" spans="1:31" ht="14.25">
       <c r="A57" s="19" t="s">
         <v>31</v>
       </c>
@@ -6761,14 +6208,14 @@
         <v>0</v>
       </c>
       <c r="V57" s="38">
-        <v>7839999.36</v>
+        <v>7839999.3600000003</v>
       </c>
       <c r="W57" s="38">
         <v>470399.96</v>
       </c>
       <c r="X57" s="39">
         <f t="shared" si="5"/>
-        <v>-1168397.36</v>
+        <v>-1168397.3600000003</v>
       </c>
       <c r="Y57" s="36">
         <v>4881660</v>
@@ -6786,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="1:31">
+    <row r="58" spans="1:31" ht="14.25">
       <c r="A58" s="19" t="s">
         <v>31</v>
       </c>
@@ -6870,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="14.25" spans="1:31">
+    <row r="59" spans="1:31" ht="14.25">
       <c r="A59" s="19" t="s">
         <v>31</v>
       </c>
@@ -6954,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="14.25" spans="1:31">
+    <row r="60" spans="1:31" ht="14.25">
       <c r="A60" s="19" t="s">
         <v>31</v>
       </c>
@@ -7041,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="1:31">
+    <row r="61" spans="1:31" ht="14.25">
       <c r="A61" s="19" t="s">
         <v>31</v>
       </c>
@@ -7097,13 +6544,13 @@
         <v>10180650</v>
       </c>
       <c r="T61" s="42">
-        <v>9929405.96</v>
+        <v>9929405.9600000009</v>
       </c>
       <c r="U61" s="42">
-        <v>251244.039999999</v>
+        <v>251244.03999999899</v>
       </c>
       <c r="V61" s="38">
-        <v>9929405.96</v>
+        <v>9929405.9600000009</v>
       </c>
       <c r="W61" s="38"/>
       <c r="X61" s="39">
@@ -7125,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="14.25" spans="1:31">
+    <row r="62" spans="1:31" ht="14.25">
       <c r="A62" s="19" t="s">
         <v>31</v>
       </c>
@@ -7209,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="14.25" spans="1:31">
+    <row r="63" spans="1:31" ht="14.25">
       <c r="A63" s="19" t="s">
         <v>31</v>
       </c>
@@ -7293,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" ht="14.25" spans="1:31">
+    <row r="64" spans="1:31" ht="14.25">
       <c r="A64" s="21" t="s">
         <v>31</v>
       </c>
@@ -7345,18 +6792,18 @@
       <c r="R64" s="44"/>
       <c r="S64" s="44"/>
       <c r="T64" s="45">
-        <v>6789.90196078431</v>
+        <v>6789.9019607843102</v>
       </c>
       <c r="U64" s="45">
         <v>0</v>
       </c>
       <c r="V64" s="45">
-        <v>6789.90196078431</v>
+        <v>6789.9019607843102</v>
       </c>
       <c r="W64" s="46"/>
       <c r="X64" s="45"/>
       <c r="Y64" s="45">
-        <v>6789.90196078431</v>
+        <v>6789.9019607843102</v>
       </c>
       <c r="Z64" s="48">
         <v>0</v>
@@ -7371,7 +6818,7 @@
       </c>
       <c r="AE64" s="22"/>
     </row>
-    <row r="65" ht="14.25" spans="1:31">
+    <row r="65" spans="1:31" ht="14.25">
       <c r="A65" s="21" t="s">
         <v>31</v>
       </c>
@@ -7451,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="14.25" spans="1:31">
+    <row r="66" spans="1:31" ht="14.25">
       <c r="A66" s="21" t="s">
         <v>31</v>
       </c>
@@ -7503,18 +6950,18 @@
       <c r="R66" s="44"/>
       <c r="S66" s="44"/>
       <c r="T66" s="45">
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="U66" s="45">
         <v>0</v>
       </c>
       <c r="V66" s="45">
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="W66" s="46"/>
       <c r="X66" s="45"/>
       <c r="Y66" s="45">
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="Z66" s="48">
         <v>0</v>
@@ -7531,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="14.25" spans="1:31">
+    <row r="67" spans="1:31" ht="14.25">
       <c r="A67" s="49" t="s">
         <v>31</v>
       </c>
@@ -7615,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="14.25" spans="1:31">
+    <row r="68" spans="1:31" ht="14.25">
       <c r="A68" s="49" t="s">
         <v>31</v>
       </c>
@@ -7669,18 +7116,18 @@
       <c r="R68" s="54"/>
       <c r="S68" s="54"/>
       <c r="T68" s="45">
-        <v>3139374.44366</v>
+        <v>3139374.4436599999</v>
       </c>
       <c r="U68" s="54">
         <v>0</v>
       </c>
       <c r="V68" s="45">
-        <v>3139374.44366</v>
+        <v>3139374.4436599999</v>
       </c>
       <c r="W68" s="45"/>
       <c r="X68" s="55"/>
       <c r="Y68" s="45">
-        <v>3139374.44366</v>
+        <v>3139374.4436599999</v>
       </c>
       <c r="Z68" s="48">
         <v>0</v>
@@ -7699,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="14.25" spans="1:31">
+    <row r="69" spans="1:31" ht="14.25">
       <c r="A69" s="49" t="s">
         <v>31</v>
       </c>
@@ -7783,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="14.25" spans="1:31">
+    <row r="70" spans="1:31" ht="14.25">
       <c r="A70" s="49" t="s">
         <v>31</v>
       </c>
@@ -7866,19 +7313,19 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AE70"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7897,7 +7344,7 @@
     <col min="19" max="19" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:20">
+    <row r="1" spans="1:20" ht="14.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -7959,7 +7406,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:20">
+    <row r="2" spans="1:20" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -7991,39 +7438,39 @@
       </c>
       <c r="J2" s="14">
         <f t="shared" ref="J2:J10" si="0">H2*I2</f>
-        <v>88574.201</v>
+        <v>88574.201000000001</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="14">
         <f t="shared" ref="L2:L10" si="1">J2-K2</f>
-        <v>88574.201</v>
+        <v>88574.201000000001</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N2" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A2,客户表!A:A,E2,客户表!M:M,F2)+SUMIFS(客户表!W:W,客户表!I:I,A2,客户表!A:A,E2,客户表!M:M,F2)</f>
-        <v>2566257.56739192</v>
+        <v>2638257.5673919204</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="15">
         <f>(N2-G2+J2)/1.06</f>
-        <v>833346.932445207</v>
+        <v>901271.46074709459</v>
       </c>
       <c r="Q2" s="15">
         <f>P2-(O2/1.06)</f>
-        <v>833346.932445207</v>
+        <v>901271.46074709459</v>
       </c>
       <c r="R2" s="16">
         <f>Q2/N2</f>
-        <v>0.324732381906675</v>
+        <v>0.3416161757239104</v>
       </c>
       <c r="S2" s="6"/>
       <c r="T2" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:20">
+    <row r="3" spans="1:20" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
@@ -8053,39 +7500,39 @@
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>994.0455</v>
+        <v>994.04550000000006</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="14">
         <f t="shared" si="1"/>
-        <v>994.0455</v>
+        <v>994.04550000000006</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N3" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A3,客户表!A:A,E3,客户表!M:M,F3)+SUMIFS(客户表!W:W,客户表!I:I,A3,客户表!A:A,E3,客户表!M:M,F3)</f>
-        <v>19680.1189090909</v>
+        <v>19680.11890909091</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="15">
         <f>(N3-G3+J3)/1.06</f>
-        <v>748.3532161235</v>
+        <v>748.35321612350026</v>
       </c>
       <c r="Q3" s="15">
         <f t="shared" ref="Q3:Q14" si="2">P3-(O3/1.06)</f>
-        <v>748.3532161235</v>
+        <v>748.35321612350026</v>
       </c>
       <c r="R3" s="16">
         <f t="shared" ref="R3:R14" si="3">Q3/N3</f>
-        <v>0.0380258482979902</v>
+        <v>3.8025848297990245E-2</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:20">
+    <row r="4" spans="1:20" ht="14.25">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -8115,39 +7562,39 @@
       </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>179.5845</v>
+        <v>179.58450000000002</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="14">
         <f t="shared" si="1"/>
-        <v>179.5845</v>
+        <v>179.58450000000002</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>61</v>
       </c>
       <c r="N4" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A4,客户表!A:A,E4,客户表!M:M,F4)+SUMIFS(客户表!W:W,客户表!I:I,A4,客户表!A:A,E4,客户表!M:M,F4)</f>
-        <v>3043.80508474576</v>
+        <v>3043.805084745763</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="15">
         <f>(N4-G4+J4)/1.06</f>
-        <v>-347.453221937962</v>
+        <v>-347.45322193795943</v>
       </c>
       <c r="Q4" s="15">
         <f t="shared" si="2"/>
-        <v>-347.453221937962</v>
+        <v>-347.45322193795943</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="3"/>
-        <v>-0.114150943396227</v>
+        <v>-0.11415094339622631</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:20">
+    <row r="5" spans="1:20" ht="14.25">
       <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
@@ -8191,27 +7638,27 @@
       </c>
       <c r="N5" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A5,客户表!A:A,E5,客户表!M:M,F5)+SUMIFS(客户表!W:W,客户表!I:I,A5,客户表!A:A,E5,客户表!M:M,F5)</f>
-        <v>8310399.32</v>
+        <v>8310399.3200000003</v>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="15">
-        <f t="shared" ref="P3:P14" si="4">(N5-G5+J5)/1.06</f>
-        <v>3464926.71698113</v>
+        <f t="shared" ref="P5:P14" si="4">(N5-G5+J5)/1.06</f>
+        <v>3464926.716981132</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="2"/>
-        <v>3464926.71698113</v>
+        <v>3464926.716981132</v>
       </c>
       <c r="R5" s="16">
         <f t="shared" si="3"/>
-        <v>0.416938655239148</v>
+        <v>0.41693865523914825</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:20">
+    <row r="6" spans="1:20" ht="14.25">
       <c r="A6" s="6" t="s">
         <v>164</v>
       </c>
@@ -8260,22 +7707,22 @@
       <c r="O6" s="8"/>
       <c r="P6" s="15">
         <f t="shared" si="4"/>
-        <v>12111.320754717</v>
+        <v>12111.32075471698</v>
       </c>
       <c r="Q6" s="15">
         <f t="shared" si="2"/>
-        <v>12111.320754717</v>
+        <v>12111.32075471698</v>
       </c>
       <c r="R6" s="16">
         <f t="shared" si="3"/>
-        <v>0.0471698113207547</v>
+        <v>4.7169811320754713E-2</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:20">
+    <row r="7" spans="1:20" ht="14.25">
       <c r="A7" s="6" t="s">
         <v>167</v>
       </c>
@@ -8324,11 +7771,11 @@
       <c r="O7" s="8"/>
       <c r="P7" s="15">
         <f t="shared" si="4"/>
-        <v>-276087.198113208</v>
+        <v>-276087.19811320753</v>
       </c>
       <c r="Q7" s="15">
         <f t="shared" si="2"/>
-        <v>-276087.198113208</v>
+        <v>-276087.19811320753</v>
       </c>
       <c r="R7" s="16" t="e">
         <f t="shared" si="3"/>
@@ -8339,7 +7786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:20">
+    <row r="8" spans="1:20" ht="14.25">
       <c r="A8" s="6" t="s">
         <v>170</v>
       </c>
@@ -8388,11 +7835,11 @@
       <c r="O8" s="8"/>
       <c r="P8" s="15">
         <f t="shared" si="4"/>
-        <v>-76415.0943396226</v>
+        <v>-76415.094339622636</v>
       </c>
       <c r="Q8" s="15">
         <f t="shared" si="2"/>
-        <v>-76415.0943396226</v>
+        <v>-76415.094339622636</v>
       </c>
       <c r="R8" s="16" t="e">
         <f t="shared" si="3"/>
@@ -8403,7 +7850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:20">
+    <row r="9" spans="1:20" ht="14.25">
       <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
@@ -8447,27 +7894,27 @@
       </c>
       <c r="N9" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A9,客户表!A:A,E9,客户表!M:M,F9)+SUMIFS(客户表!W:W,客户表!I:I,A9,客户表!A:A,E9,客户表!M:M,F9)</f>
-        <v>13107305.96</v>
+        <v>13107305.960000001</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="15">
         <f t="shared" si="4"/>
-        <v>-267305.698113207</v>
+        <v>-267305.69811320672</v>
       </c>
       <c r="Q9" s="15">
         <f t="shared" si="2"/>
-        <v>-267305.698113207</v>
+        <v>-267305.69811320672</v>
       </c>
       <c r="R9" s="16">
         <f t="shared" si="3"/>
-        <v>-0.0203936414492003</v>
+        <v>-2.0393641449200344E-2</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:20">
+    <row r="10" spans="1:20" ht="14.25">
       <c r="A10" s="6" t="s">
         <v>174</v>
       </c>
@@ -8516,22 +7963,22 @@
       <c r="O10" s="8"/>
       <c r="P10" s="15">
         <f t="shared" si="4"/>
-        <v>-267452.830188679</v>
+        <v>-267452.83018867922</v>
       </c>
       <c r="Q10" s="15">
         <f t="shared" si="2"/>
-        <v>-267452.830188679</v>
+        <v>-267452.83018867922</v>
       </c>
       <c r="R10" s="16">
         <f t="shared" si="3"/>
-        <v>-0.0142938822184105</v>
+        <v>-1.429388221841052E-2</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:20">
+    <row r="11" spans="1:20" ht="14.25">
       <c r="A11" s="6" t="s">
         <v>183</v>
       </c>
@@ -8551,10 +7998,10 @@
         <v>40</v>
       </c>
       <c r="G11" s="9">
-        <v>-135.8</v>
+        <v>-135.80000000000001</v>
       </c>
       <c r="H11" s="9">
-        <v>-135.8</v>
+        <v>-135.80000000000001</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -8567,27 +8014,27 @@
       </c>
       <c r="N11" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A11,客户表!A:A,E11,客户表!M:M,F11)+SUMIFS(客户表!W:W,客户表!I:I,A11,客户表!A:A,E11,客户表!M:M,F11)</f>
-        <v>-135.79803921569</v>
+        <v>-135.79803921568964</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="15">
         <f t="shared" si="4"/>
-        <v>0.00184979651921693</v>
+        <v>1.8497965192169293E-3</v>
       </c>
       <c r="Q11" s="15">
         <f t="shared" si="2"/>
-        <v>0.00184979651921693</v>
+        <v>1.8497965192169293E-3</v>
       </c>
       <c r="R11" s="16">
         <f t="shared" si="3"/>
-        <v>-1.36216732575857e-5</v>
+        <v>-1.3621673257585667E-5</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:20">
+    <row r="12" spans="1:20" ht="14.25">
       <c r="A12" s="6" t="s">
         <v>187</v>
       </c>
@@ -8607,10 +8054,10 @@
         <v>40</v>
       </c>
       <c r="G12" s="9">
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="H12" s="9">
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -8623,7 +8070,7 @@
       </c>
       <c r="N12" s="15">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A12,客户表!A:A,E12,客户表!M:M,F12)+SUMIFS(客户表!W:W,客户表!I:I,A12,客户表!A:A,E12,客户表!M:M,F12)</f>
-        <v>247.432692307692</v>
+        <v>247.43269230769201</v>
       </c>
       <c r="O12" s="8"/>
       <c r="P12" s="15">
@@ -8645,7 +8092,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:20">
+    <row r="13" spans="1:20" ht="14.25">
       <c r="A13" s="6" t="s">
         <v>194</v>
       </c>
@@ -8703,7 +8150,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:20">
+    <row r="14" spans="1:20" ht="14.25">
       <c r="A14" s="6" t="s">
         <v>199</v>
       </c>
@@ -8744,15 +8191,15 @@
       <c r="O14" s="8"/>
       <c r="P14" s="15">
         <f t="shared" si="4"/>
-        <v>8694.33962264151</v>
+        <v>8694.3396226415098</v>
       </c>
       <c r="Q14" s="15">
         <f t="shared" si="2"/>
-        <v>8694.33962264151</v>
+        <v>8694.3396226415098</v>
       </c>
       <c r="R14" s="16">
         <f t="shared" si="3"/>
-        <v>0.0556228778538259</v>
+        <v>5.5622877853825865E-2</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>185</v>
@@ -8762,9 +8209,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>